--- a/ProjectJava/data/ListeDesClasses.xlsx
+++ b/ProjectJava/data/ListeDesClasses.xlsx
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Filière</t>
   </si>
@@ -30,12 +30,22 @@
   </si>
   <si>
     <t>Nom</t>
+  </si>
+  <si>
+    <t>GI 16</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -355,10 +365,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -372,7 +382,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectJava/data/ListeDesClasses.xlsx
+++ b/ProjectJava/data/ListeDesClasses.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EFF75E39-5609-437C-B09A-A326132026B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{15A090BD-BF18-49DF-8CF2-0D8B80A3F66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Filière</t>
   </si>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t xml:space="preserve"> 16 </t>
+  </si>
+  <si>
+    <t>GIP 15</t>
+  </si>
+  <si>
+    <t>GIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 </t>
+  </si>
+  <si>
+    <t>A 12</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 </t>
+  </si>
+  <si>
+    <t>AA 12</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -360,7 +384,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,16 +408,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
